--- a/Experiment 2/Trace Files/newreno-reno/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/ThroughputGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Reno</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>CBR</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -509,11 +512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1284751792"/>
-        <c:axId val="-1284753968"/>
+        <c:axId val="-1553835408"/>
+        <c:axId val="-1553823984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1284751792"/>
+        <c:axId val="-1553835408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284753968"/>
+        <c:crossAx val="-1553823984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -620,7 +623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1284753968"/>
+        <c:axId val="-1553823984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
@@ -729,7 +732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284751792"/>
+        <c:crossAx val="-1553835408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1284757776"/>
-        <c:axId val="-1284756144"/>
+        <c:axId val="-1553828336"/>
+        <c:axId val="-1553826704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1284757776"/>
+        <c:axId val="-1553828336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284756144"/>
+        <c:crossAx val="-1553826704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1284756144"/>
+        <c:axId val="-1553826704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="380"/>
@@ -1326,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1284757776"/>
+        <c:crossAx val="-1553828336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2849,10 +2852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="B15" sqref="B15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3011,6 +3014,15 @@
         <v>466.76526427300001</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.33934058250759502</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/newreno-reno/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/ThroughputGraph.xlsx
@@ -257,34 +257,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.83273964400001</c:v>
+                  <c:v>253.17677174100001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411.70564135799998</c:v>
+                  <c:v>253.15340030999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.534192926</c:v>
+                  <c:v>252.887335138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>411.88364432499998</c:v>
+                  <c:v>253.26981066499999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>392.10219585499999</c:v>
+                  <c:v>230.98304475899999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>392.97880655699998</c:v>
+                  <c:v>231.00152654499999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>384.59204452500001</c:v>
+                  <c:v>222.67662440000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>391.02677362499998</c:v>
+                  <c:v>228.55209918099999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>397.10905429500002</c:v>
+                  <c:v>230.08681708099999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>390.516295238</c:v>
+                  <c:v>206.98599342899999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -363,34 +363,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>410.47724739400002</c:v>
+                  <c:v>251.82191639499999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410.89848581500002</c:v>
+                  <c:v>252.20163518800001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.73658186400002</c:v>
+                  <c:v>253.184700741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410.94008942200003</c:v>
+                  <c:v>252.27717806000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.68894332999997</c:v>
+                  <c:v>229.42468204799999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394.03183602500002</c:v>
+                  <c:v>232.996807012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>381.389331454</c:v>
+                  <c:v>219.06865761700001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>390.13198067500002</c:v>
+                  <c:v>226.42218183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>391.47087152699999</c:v>
+                  <c:v>226.65612834800001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>381.42936438300001</c:v>
+                  <c:v>206.35550061000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -512,11 +512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1553835408"/>
-        <c:axId val="-1553823984"/>
+        <c:axId val="-1873445808"/>
+        <c:axId val="-1873455600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1553835408"/>
+        <c:axId val="-1873445808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1553823984"/>
+        <c:crossAx val="-1873455600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,11 +623,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1553823984"/>
+        <c:axId val="-1873455600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
-          <c:min val="380"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -732,7 +732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1553835408"/>
+        <c:crossAx val="-1873445808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,34 +961,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.83273964400001</c:v>
+                  <c:v>253.17677174100001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411.70564135799998</c:v>
+                  <c:v>253.15340030999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.534192926</c:v>
+                  <c:v>252.887335138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>411.88364432499998</c:v>
+                  <c:v>253.26981066499999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>392.10219585499999</c:v>
+                  <c:v>230.98304475899999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>392.97880655699998</c:v>
+                  <c:v>231.00152654499999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>384.59204452500001</c:v>
+                  <c:v>222.67662440000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>391.02677362499998</c:v>
+                  <c:v>228.55209918099999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>397.10905429500002</c:v>
+                  <c:v>230.08681708099999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>390.516295238</c:v>
+                  <c:v>206.98599342899999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,34 +1067,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>410.47724739400002</c:v>
+                  <c:v>251.82191639499999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410.89848581500002</c:v>
+                  <c:v>252.20163518800001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.73658186400002</c:v>
+                  <c:v>253.184700741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410.94008942200003</c:v>
+                  <c:v>252.27717806000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.68894332999997</c:v>
+                  <c:v>229.42468204799999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394.03183602500002</c:v>
+                  <c:v>232.996807012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>381.389331454</c:v>
+                  <c:v>219.06865761700001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>390.13198067500002</c:v>
+                  <c:v>226.42218183</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>391.47087152699999</c:v>
+                  <c:v>226.65612834800001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>381.42936438300001</c:v>
+                  <c:v>206.35550061000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1553828336"/>
-        <c:axId val="-1553826704"/>
+        <c:axId val="-1873447440"/>
+        <c:axId val="-1873448528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1553828336"/>
+        <c:axId val="-1873447440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1553826704"/>
+        <c:crossAx val="-1873448528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,10 +1221,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1553826704"/>
+        <c:axId val="-1873448528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="380"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1553828336"/>
+        <c:crossAx val="-1873447440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2855,7 +2855,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C15"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2879,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>411.83273964400001</v>
+        <v>253.17677174100001</v>
       </c>
       <c r="C2" s="1">
-        <v>410.47724739400002</v>
+        <v>251.82191639499999</v>
       </c>
       <c r="D2" s="1">
         <v>715.18480375299998</v>
@@ -2893,10 +2893,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>411.70564135799998</v>
+        <v>253.15340030999999</v>
       </c>
       <c r="C3" s="1">
-        <v>410.89848581500002</v>
+        <v>252.20163518800001</v>
       </c>
       <c r="D3" s="1">
         <v>718.09652146600001</v>
@@ -2907,10 +2907,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>411.534192926</v>
+        <v>252.887335138</v>
       </c>
       <c r="C4" s="1">
-        <v>411.73658186400002</v>
+        <v>253.184700741</v>
       </c>
       <c r="D4" s="1">
         <v>719.19636948699997</v>
@@ -2921,10 +2921,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>411.88364432499998</v>
+        <v>253.26981066499999</v>
       </c>
       <c r="C5" s="1">
-        <v>410.94008942200003</v>
+        <v>252.27717806000001</v>
       </c>
       <c r="D5" s="1">
         <v>716.34831842599999</v>
@@ -2935,10 +2935,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>392.10219585499999</v>
+        <v>230.98304475899999</v>
       </c>
       <c r="C6" s="1">
-        <v>390.68894332999997</v>
+        <v>229.42468204799999</v>
       </c>
       <c r="D6" s="3">
         <v>594.19076395399998</v>
@@ -2949,10 +2949,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>392.97880655699998</v>
+        <v>231.00152654499999</v>
       </c>
       <c r="C7" s="1">
-        <v>394.03183602500002</v>
+        <v>232.996807012</v>
       </c>
       <c r="D7" s="1">
         <v>613.63491582699999</v>
@@ -2963,10 +2963,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>384.59204452500001</v>
+        <v>222.67662440000001</v>
       </c>
       <c r="C8" s="1">
-        <v>381.389331454</v>
+        <v>219.06865761700001</v>
       </c>
       <c r="D8" s="1">
         <v>553.46234066199997</v>
@@ -2977,10 +2977,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>391.02677362499998</v>
+        <v>228.55209918099999</v>
       </c>
       <c r="C9" s="1">
-        <v>390.13198067500002</v>
+        <v>226.42218183</v>
       </c>
       <c r="D9" s="1">
         <v>595.59885140300003</v>
@@ -2991,10 +2991,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>397.10905429500002</v>
+        <v>230.08681708099999</v>
       </c>
       <c r="C10" s="1">
-        <v>391.47087152699999</v>
+        <v>226.65612834800001</v>
       </c>
       <c r="D10" s="1">
         <v>597.95170956599998</v>
@@ -3005,10 +3005,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>390.516295238</v>
+        <v>206.98599342899999</v>
       </c>
       <c r="C11" s="2">
-        <v>381.42936438300001</v>
+        <v>206.35550061000001</v>
       </c>
       <c r="D11" s="2">
         <v>466.76526427300001</v>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="C15">
         <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.33934058250759502</v>
+        <v>0.43367320477142213</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/newreno-reno/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/newreno-reno/ThroughputGraph.xlsx
@@ -512,11 +512,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1873445808"/>
-        <c:axId val="-1873455600"/>
+        <c:axId val="-294565680"/>
+        <c:axId val="-294553168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1873445808"/>
+        <c:axId val="-294565680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1873455600"/>
+        <c:crossAx val="-294553168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -623,7 +623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1873455600"/>
+        <c:axId val="-294553168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
@@ -732,7 +732,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1873445808"/>
+        <c:crossAx val="-294565680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1873447440"/>
-        <c:axId val="-1873448528"/>
+        <c:axId val="-294565136"/>
+        <c:axId val="-294557520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1873447440"/>
+        <c:axId val="-294565136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1873448528"/>
+        <c:crossAx val="-294557520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1221,7 +1221,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1873448528"/>
+        <c:axId val="-294557520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1873447440"/>
+        <c:crossAx val="-294565136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2855,7 +2855,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3019,8 +3019,8 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.43367320477142213</v>
+        <f>TTEST(B2:B11,C2:C11,2,3)</f>
+        <v>0.86734640954284425</v>
       </c>
     </row>
   </sheetData>
